--- a/spliced/falling/2023-03-21_15-34-35/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-35/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.2705469131469726</v>
+        <v>-0.2052898406982422</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4402385950088501</v>
+        <v>0.80674147605896</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.731513738632202</v>
+        <v>-1.046440482139587</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.05105815259351689</v>
+        <v>0.003250675749898542</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.02509637922048548</v>
+        <v>0.03200497691120401</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0663297846913338</v>
+        <v>-0.08288132186446855</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.6277971267700195</v>
+        <v>-0.2705469131469726</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0076048374176025</v>
+        <v>0.4402385950088501</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.507715225219727</v>
+        <v>-1.731513738632202</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1197514058578581</v>
+        <v>-0.05105815259351689</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3090105539276482</v>
+        <v>-0.02509637922048548</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06041020864532091</v>
+        <v>-0.0663297846913338</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.914698600769043</v>
+        <v>-0.6277971267700195</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.449564576148987</v>
+        <v>0.0076048374176025</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.32840347290039</v>
+        <v>-1.507715225219727</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4005748778581615</v>
+        <v>-0.1197514058578581</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.7805985297475537</v>
+        <v>-0.3090105539276482</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1577123148100716</v>
+        <v>0.06041020864532091</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.028462886810303</v>
+        <v>-2.914698600769043</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5502710342407227</v>
+        <v>-1.449564576148987</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.842555046081543</v>
+        <v>-3.32840347290039</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6522004490806942</v>
+        <v>-0.4005748778581615</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.329693669364566</v>
+        <v>-0.7805985297475537</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1308778794038864</v>
+        <v>0.1577123148100716</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.341280460357666</v>
+        <v>1.028462886810303</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.225003957748413</v>
+        <v>-0.5502710342407227</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.344600677490234</v>
+        <v>-4.842555046081543</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6102398293358944</v>
+        <v>-0.6522004490806942</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.220246967815219</v>
+        <v>-1.329693669364566</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4809618578070668</v>
+        <v>0.1308778794038864</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8.574896812438965</v>
+        <v>-1.341280460357666</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6133027076721191</v>
+        <v>-2.225003957748413</v>
       </c>
       <c r="E7" t="n">
-        <v>-6.888121604919434</v>
+        <v>-6.344600677490234</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04692753723689685</v>
+        <v>-0.6102398293358944</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2711587122508481</v>
+        <v>-1.220246967815219</v>
       </c>
       <c r="H7" t="n">
-        <v>1.261436768940515</v>
+        <v>0.4809618578070668</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-6.096681118011475</v>
+        <v>8.574896812438965</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8472604751586914</v>
+        <v>0.6133027076721191</v>
       </c>
       <c r="E8" t="n">
-        <v>14.72706890106201</v>
+        <v>-6.888121604919434</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2368920927955998</v>
+        <v>-0.04692753723689685</v>
       </c>
       <c r="G8" t="n">
-        <v>2.034886604263666</v>
+        <v>-0.2711587122508481</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6732607796078658</v>
+        <v>1.261436768940515</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4.274323463439941</v>
+        <v>-6.096681118011475</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.468049049377441</v>
+        <v>0.8472604751586914</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.856836795806885</v>
+        <v>14.72706890106201</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7203119397163371</v>
+        <v>0.2368920927955998</v>
       </c>
       <c r="G9" t="n">
-        <v>3.954537868499759</v>
+        <v>2.034886604263666</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.220546166102086</v>
+        <v>0.6732607796078658</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-4.518700122833252</v>
+        <v>4.274323463439941</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.648021101951599</v>
+        <v>-4.468049049377441</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9248533248901368</v>
+        <v>-6.856836795806885</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9733701603753284</v>
+        <v>-0.7203119397163371</v>
       </c>
       <c r="G10" t="n">
-        <v>2.440581185477122</v>
+        <v>3.954537868499759</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.891320841653013</v>
+        <v>-2.220546166102086</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9.755411148071287</v>
+        <v>-4.518700122833252</v>
       </c>
       <c r="D11" t="n">
-        <v>3.367114305496216</v>
+        <v>-1.648021101951599</v>
       </c>
       <c r="E11" t="n">
-        <v>2.822277307510376</v>
+        <v>-0.9248533248901368</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4988514525549754</v>
+        <v>-0.9733701603753284</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8867653551555867</v>
+        <v>2.440581185477122</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.71078631139937</v>
+        <v>-3.891320841653013</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.561064720153809</v>
+        <v>9.755411148071287</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1129603385925293</v>
+        <v>3.367114305496216</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.9029455184936525</v>
+        <v>2.822277307510376</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1264272814705268</v>
+        <v>0.4988514525549754</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.447191684019</v>
+        <v>0.8867653551555867</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.4622068021978656</v>
+        <v>-1.71078631139937</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5.92741584777832</v>
+        <v>1.561064720153809</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.8555939197540283</v>
+        <v>0.1129603385925293</v>
       </c>
       <c r="E13" t="n">
-        <v>4.797466278076172</v>
+        <v>-0.9029455184936525</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7295694393771054</v>
+        <v>0.1264272814705268</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.004014266388761123</v>
+        <v>-2.447191684019</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09374600010258789</v>
+        <v>-0.4622068021978656</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.122594833374023</v>
+        <v>5.92741584777832</v>
       </c>
       <c r="D14" t="n">
-        <v>1.295500755310059</v>
+        <v>-0.8555939197540283</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.442571401596069</v>
+        <v>4.797466278076172</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1179624412740978</v>
+        <v>-0.7295694393771054</v>
       </c>
       <c r="G14" t="n">
-        <v>1.259269575277969</v>
+        <v>-0.004014266388761123</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1631955632141657</v>
+        <v>0.09374600010258789</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5986118316650391</v>
+        <v>1.122594833374023</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4096674025058746</v>
+        <v>1.295500755310059</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.6679027080535889</v>
+        <v>-1.442571401596069</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1617193005624273</v>
+        <v>-0.1179624412740978</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4078179995218952</v>
+        <v>1.259269575277969</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2281727109636559</v>
+        <v>0.1631955632141657</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0388402938842773</v>
+        <v>0.5986118316650391</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3524296283721924</v>
+        <v>0.4096674025058746</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.101761341094971</v>
+        <v>-0.6679027080535889</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.124921940267086</v>
+        <v>-0.1617193005624273</v>
       </c>
       <c r="G16" t="n">
-        <v>1.249372124671936</v>
+        <v>-0.4078179995218952</v>
       </c>
       <c r="H16" t="n">
-        <v>1.016479730606079</v>
+        <v>0.2281727109636559</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.1728830337524414</v>
+        <v>0.0388402938842773</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6193998456001282</v>
+        <v>0.3524296283721924</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.6873818635940552</v>
+        <v>-1.101761341094971</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4928955077415405</v>
+        <v>-0.124921940267086</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.4476696934018742</v>
+        <v>1.249372124671936</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.9833766732896989</v>
+        <v>1.016479730606079</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.4876585006713867</v>
+        <v>-0.1728830337524414</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6636635065078735</v>
+        <v>0.6193998456001282</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.9166454076766968</v>
+        <v>-0.6873818635940552</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2805471434479678</v>
+        <v>-0.4928955077415405</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4230750912711692</v>
+        <v>-0.4476696934018742</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.2188279224293611</v>
+        <v>-0.9833766732896989</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.1092472076416015</v>
+        <v>0.4876585006713867</v>
       </c>
       <c r="D19" t="n">
-        <v>0.732629120349884</v>
+        <v>0.6636635065078735</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.016466021537781</v>
+        <v>-0.9166454076766968</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2866266923291341</v>
+        <v>-0.2805471434479678</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4182899764605935</v>
+        <v>0.4230750912711692</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.003992439912898826</v>
+        <v>-0.2188279224293611</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.4153709411621094</v>
+        <v>-0.1092472076416015</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5096800327301025</v>
+        <v>0.732629120349884</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.7671611309051514</v>
+        <v>-1.016466021537781</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.03713915026968551</v>
+        <v>-0.2866266923291341</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07855436143775912</v>
+        <v>0.4182899764605935</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07685266648020034</v>
+        <v>-0.003992439912898826</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.17730712890625</v>
+        <v>0.4153709411621094</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6253083348274231</v>
+        <v>0.5096800327301025</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.8837988376617432</v>
+        <v>-0.7671611309051514</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03008511281084441</v>
+        <v>-0.03713915026968551</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0510363349070151</v>
+        <v>0.07855436143775912</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.07897615255344478</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0039987564086914</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.546174168586731</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.7374091148376465</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0188495556690863</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.09346238630158486</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.02356194624943445</v>
+        <v>0.07685266648020034</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-34-35/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-35/data_selected.xlsx
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.2052898406982422</v>
+        <v>-0.2705469131469726</v>
       </c>
       <c r="D2" t="n">
-        <v>0.80674147605896</v>
+        <v>0.4402385950088501</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.046440482139587</v>
+        <v>-1.731513738632202</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003250675749898542</v>
+        <v>-0.05105815259351689</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03200497691120401</v>
+        <v>-0.02509637922048548</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.08288132186446855</v>
+        <v>-0.0663297846913338</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.2705469131469726</v>
+        <v>-0.6277971267700195</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4402385950088501</v>
+        <v>0.0076048374176025</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.731513738632202</v>
+        <v>-1.507715225219727</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.05105815259351689</v>
+        <v>-0.1197514058578581</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.02509637922048548</v>
+        <v>-0.3090105539276482</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0663297846913338</v>
+        <v>0.06041020864532091</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.6277971267700195</v>
+        <v>-2.914698600769043</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0076048374176025</v>
+        <v>-1.449564576148987</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.507715225219727</v>
+        <v>-3.32840347290039</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1197514058578581</v>
+        <v>-0.4005748778581615</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3090105539276482</v>
+        <v>-0.7805985297475537</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06041020864532091</v>
+        <v>0.1577123148100716</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.914698600769043</v>
+        <v>1.028462886810303</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.449564576148987</v>
+        <v>-0.5502710342407227</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.32840347290039</v>
+        <v>-4.842555046081543</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4005748778581615</v>
+        <v>-0.6522004490806942</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.7805985297475537</v>
+        <v>-1.329693669364566</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1577123148100716</v>
+        <v>0.1308778794038864</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.028462886810303</v>
+        <v>-1.341280460357666</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5502710342407227</v>
+        <v>-2.225003957748413</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.842555046081543</v>
+        <v>-6.344600677490234</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6522004490806942</v>
+        <v>-0.6102398293358944</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.329693669364566</v>
+        <v>-1.220246967815219</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1308778794038864</v>
+        <v>0.4809618578070668</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.341280460357666</v>
+        <v>8.574896812438965</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.225003957748413</v>
+        <v>0.6133027076721191</v>
       </c>
       <c r="E7" t="n">
-        <v>-6.344600677490234</v>
+        <v>-6.888121604919434</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6102398293358944</v>
+        <v>-0.04692753723689685</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.220246967815219</v>
+        <v>-0.2711587122508481</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4809618578070668</v>
+        <v>1.261436768940515</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8.574896812438965</v>
+        <v>-6.096681118011475</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6133027076721191</v>
+        <v>0.8472604751586914</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.888121604919434</v>
+        <v>14.72706890106201</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04692753723689685</v>
+        <v>0.2368920927955998</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2711587122508481</v>
+        <v>2.034886604263666</v>
       </c>
       <c r="H8" t="n">
-        <v>1.261436768940515</v>
+        <v>0.6732607796078658</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-6.096681118011475</v>
+        <v>4.274323463439941</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8472604751586914</v>
+        <v>-4.468049049377441</v>
       </c>
       <c r="E9" t="n">
-        <v>14.72706890106201</v>
+        <v>-6.856836795806885</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2368920927955998</v>
+        <v>-0.7203119397163371</v>
       </c>
       <c r="G9" t="n">
-        <v>2.034886604263666</v>
+        <v>3.954537868499759</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6732607796078658</v>
+        <v>-2.220546166102086</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.274323463439941</v>
+        <v>-4.518700122833252</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.468049049377441</v>
+        <v>-1.648021101951599</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.856836795806885</v>
+        <v>-0.9248533248901368</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.7203119397163371</v>
+        <v>-0.9733701603753284</v>
       </c>
       <c r="G10" t="n">
-        <v>3.954537868499759</v>
+        <v>2.440581185477122</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.220546166102086</v>
+        <v>-3.891320841653013</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-4.518700122833252</v>
+        <v>9.755411148071287</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.648021101951599</v>
+        <v>3.367114305496216</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9248533248901368</v>
+        <v>2.822277307510376</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.9733701603753284</v>
+        <v>0.4988514525549754</v>
       </c>
       <c r="G11" t="n">
-        <v>2.440581185477122</v>
+        <v>0.8867653551555867</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.891320841653013</v>
+        <v>-1.71078631139937</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9.755411148071287</v>
+        <v>1.561064720153809</v>
       </c>
       <c r="D12" t="n">
-        <v>3.367114305496216</v>
+        <v>0.1129603385925293</v>
       </c>
       <c r="E12" t="n">
-        <v>2.822277307510376</v>
+        <v>-0.9029455184936525</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4988514525549754</v>
+        <v>0.1264272814705268</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8867653551555867</v>
+        <v>-2.447191684019</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.71078631139937</v>
+        <v>-0.4622068021978656</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.561064720153809</v>
+        <v>5.92741584777832</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1129603385925293</v>
+        <v>-0.8555939197540283</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.9029455184936525</v>
+        <v>4.797466278076172</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1264272814705268</v>
+        <v>-0.7295694393771054</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.447191684019</v>
+        <v>-0.004014266388761123</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.4622068021978656</v>
+        <v>0.09374600010258789</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5.92741584777832</v>
+        <v>1.122594833374023</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.8555939197540283</v>
+        <v>1.295500755310059</v>
       </c>
       <c r="E14" t="n">
-        <v>4.797466278076172</v>
+        <v>-1.442571401596069</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7295694393771054</v>
+        <v>-0.1179624412740978</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.004014266388761123</v>
+        <v>1.259269575277969</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09374600010258789</v>
+        <v>0.1631955632141657</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.122594833374023</v>
+        <v>0.5986118316650391</v>
       </c>
       <c r="D15" t="n">
-        <v>1.295500755310059</v>
+        <v>0.4096674025058746</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.442571401596069</v>
+        <v>-0.6679027080535889</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1179624412740978</v>
+        <v>-0.1617193005624273</v>
       </c>
       <c r="G15" t="n">
-        <v>1.259269575277969</v>
+        <v>-0.4078179995218952</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1631955632141657</v>
+        <v>0.2281727109636559</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.5986118316650391</v>
+        <v>0.0388402938842773</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4096674025058746</v>
+        <v>0.3524296283721924</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.6679027080535889</v>
+        <v>-1.101761341094971</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1617193005624273</v>
+        <v>-0.124921940267086</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.4078179995218952</v>
+        <v>1.249372124671936</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2281727109636559</v>
+        <v>1.016479730606079</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0388402938842773</v>
+        <v>-0.1728830337524414</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3524296283721924</v>
+        <v>0.6193998456001282</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.101761341094971</v>
+        <v>-0.6873818635940552</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.124921940267086</v>
+        <v>-0.4928955077415405</v>
       </c>
       <c r="G17" t="n">
-        <v>1.249372124671936</v>
+        <v>-0.4476696934018742</v>
       </c>
       <c r="H17" t="n">
-        <v>1.016479730606079</v>
+        <v>-0.9833766732896989</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.1728830337524414</v>
+        <v>0.4876585006713867</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6193998456001282</v>
+        <v>0.6636635065078735</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.6873818635940552</v>
+        <v>-0.9166454076766968</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.4928955077415405</v>
+        <v>-0.2805471434479678</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.4476696934018742</v>
+        <v>0.4230750912711692</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.9833766732896989</v>
+        <v>-0.2188279224293611</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.4876585006713867</v>
+        <v>-0.1092472076416015</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6636635065078735</v>
+        <v>0.732629120349884</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.9166454076766968</v>
+        <v>-1.016466021537781</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2805471434479678</v>
+        <v>-0.2866266923291341</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4230750912711692</v>
+        <v>0.4182899764605935</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.2188279224293611</v>
+        <v>-0.003992439912898826</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.1092472076416015</v>
+        <v>0.4153709411621094</v>
       </c>
       <c r="D20" t="n">
-        <v>0.732629120349884</v>
+        <v>0.5096800327301025</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.016466021537781</v>
+        <v>-0.7671611309051514</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2866266923291341</v>
+        <v>-0.03713915026968551</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4182899764605935</v>
+        <v>0.07855436143775912</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.003992439912898826</v>
+        <v>0.07685266648020034</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.4153709411621094</v>
+        <v>0.17730712890625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5096800327301025</v>
+        <v>0.6253083348274231</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.7671611309051514</v>
+        <v>-0.8837988376617432</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.03713915026968551</v>
+        <v>0.03008511281084441</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07855436143775912</v>
+        <v>0.0510363349070151</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07685266648020034</v>
+        <v>-0.07897615255344478</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-34-35/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-35/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.2705469131469726</v>
+        <v>-0.084752082824707</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4402385950088501</v>
+        <v>0.6204710006713867</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.731513738632202</v>
+        <v>-1.197814345359802</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.05105815259351689</v>
+        <v>-0.03934990153426188</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.02509637922048548</v>
+        <v>0.01354811775187661</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0663297846913338</v>
+        <v>-0.07257660726706182</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.6277971267700195</v>
+        <v>-0.5587072372436523</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0076048374176025</v>
+        <v>0.5920883417129517</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.507715225219727</v>
+        <v>-0.9495211839675904</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1197514058578581</v>
+        <v>-0.02474731490725574</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3090105539276482</v>
+        <v>-0.0707512873091867</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06041020864532091</v>
+        <v>0.004276057793980506</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.914698600769043</v>
+        <v>-0.2052898406982422</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.449564576148987</v>
+        <v>0.80674147605896</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.32840347290039</v>
+        <v>-1.046440482139587</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4005748778581615</v>
+        <v>0.003250675749898542</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.7805985297475537</v>
+        <v>0.03200497691120401</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1577123148100716</v>
+        <v>-0.08288132186446855</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.028462886810303</v>
+        <v>-0.2705469131469726</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5502710342407227</v>
+        <v>0.4402385950088501</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.842555046081543</v>
+        <v>-1.731513738632202</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6522004490806942</v>
+        <v>-0.05105815259351689</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.329693669364566</v>
+        <v>-0.02509637922048548</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1308778794038864</v>
+        <v>-0.0663297846913338</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.341280460357666</v>
+        <v>-0.6277971267700195</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.225003957748413</v>
+        <v>0.0076048374176025</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.344600677490234</v>
+        <v>-1.507715225219727</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6102398293358944</v>
+        <v>-0.1197514058578581</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.220246967815219</v>
+        <v>-0.3090105539276482</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4809618578070668</v>
+        <v>0.06041020864532091</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8.574896812438965</v>
+        <v>-2.914698600769043</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6133027076721191</v>
+        <v>-1.449564576148987</v>
       </c>
       <c r="E7" t="n">
-        <v>-6.888121604919434</v>
+        <v>-3.32840347290039</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04692753723689685</v>
+        <v>-0.4005748778581615</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2711587122508481</v>
+        <v>-0.7805985297475537</v>
       </c>
       <c r="H7" t="n">
-        <v>1.261436768940515</v>
+        <v>0.1577123148100716</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-6.096681118011475</v>
+        <v>1.028462886810303</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8472604751586914</v>
+        <v>-0.5502710342407227</v>
       </c>
       <c r="E8" t="n">
-        <v>14.72706890106201</v>
+        <v>-4.842555046081543</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2368920927955998</v>
+        <v>-0.6522004490806942</v>
       </c>
       <c r="G8" t="n">
-        <v>2.034886604263666</v>
+        <v>-1.329693669364566</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6732607796078658</v>
+        <v>0.1308778794038864</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4.274323463439941</v>
+        <v>-1.341280460357666</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.468049049377441</v>
+        <v>-2.225003957748413</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.856836795806885</v>
+        <v>-6.344600677490234</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7203119397163371</v>
+        <v>-0.6102398293358944</v>
       </c>
       <c r="G9" t="n">
-        <v>3.954537868499759</v>
+        <v>-1.220246967815219</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.220546166102086</v>
+        <v>0.4809618578070668</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-4.518700122833252</v>
+        <v>8.574896812438965</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.648021101951599</v>
+        <v>0.6133027076721191</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9248533248901368</v>
+        <v>-6.888121604919434</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9733701603753284</v>
+        <v>-0.04692753723689685</v>
       </c>
       <c r="G10" t="n">
-        <v>2.440581185477122</v>
+        <v>-0.2711587122508481</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.891320841653013</v>
+        <v>1.261436768940515</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9.755411148071287</v>
+        <v>-6.096681118011475</v>
       </c>
       <c r="D11" t="n">
-        <v>3.367114305496216</v>
+        <v>0.8472604751586914</v>
       </c>
       <c r="E11" t="n">
-        <v>2.822277307510376</v>
+        <v>14.72706890106201</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4988514525549754</v>
+        <v>0.2368920927955998</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8867653551555867</v>
+        <v>2.034886604263666</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.71078631139937</v>
+        <v>0.6732607796078658</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.561064720153809</v>
+        <v>4.274323463439941</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1129603385925293</v>
+        <v>-4.468049049377441</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.9029455184936525</v>
+        <v>-6.856836795806885</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1264272814705268</v>
+        <v>-0.7203119397163371</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.447191684019</v>
+        <v>3.954537868499759</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.4622068021978656</v>
+        <v>-2.220546166102086</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5.92741584777832</v>
+        <v>-4.518700122833252</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.8555939197540283</v>
+        <v>-1.648021101951599</v>
       </c>
       <c r="E13" t="n">
-        <v>4.797466278076172</v>
+        <v>-0.9248533248901368</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7295694393771054</v>
+        <v>-0.9733701603753284</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.004014266388761123</v>
+        <v>2.440581185477122</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09374600010258789</v>
+        <v>-3.891320841653013</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.122594833374023</v>
+        <v>9.755411148071287</v>
       </c>
       <c r="D14" t="n">
-        <v>1.295500755310059</v>
+        <v>3.367114305496216</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.442571401596069</v>
+        <v>2.822277307510376</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1179624412740978</v>
+        <v>0.4988514525549754</v>
       </c>
       <c r="G14" t="n">
-        <v>1.259269575277969</v>
+        <v>0.8867653551555867</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1631955632141657</v>
+        <v>-1.71078631139937</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5986118316650391</v>
+        <v>1.561064720153809</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4096674025058746</v>
+        <v>0.1129603385925293</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.6679027080535889</v>
+        <v>-0.9029455184936525</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1617193005624273</v>
+        <v>0.1264272814705268</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4078179995218952</v>
+        <v>-2.447191684019</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2281727109636559</v>
+        <v>-0.4622068021978656</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0388402938842773</v>
+        <v>5.92741584777832</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3524296283721924</v>
+        <v>-0.8555939197540283</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.101761341094971</v>
+        <v>4.797466278076172</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.124921940267086</v>
+        <v>-0.7295694393771054</v>
       </c>
       <c r="G16" t="n">
-        <v>1.249372124671936</v>
+        <v>-0.004014266388761123</v>
       </c>
       <c r="H16" t="n">
-        <v>1.016479730606079</v>
+        <v>0.09374600010258789</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.1728830337524414</v>
+        <v>1.122594833374023</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6193998456001282</v>
+        <v>1.295500755310059</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.6873818635940552</v>
+        <v>-1.442571401596069</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4928955077415405</v>
+        <v>-0.1179624412740978</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.4476696934018742</v>
+        <v>1.259269575277969</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.9833766732896989</v>
+        <v>0.1631955632141657</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.4876585006713867</v>
+        <v>0.5986118316650391</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6636635065078735</v>
+        <v>0.4096674025058746</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.9166454076766968</v>
+        <v>-0.6679027080535889</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2805471434479678</v>
+        <v>-0.1617193005624273</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4230750912711692</v>
+        <v>-0.4078179995218952</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.2188279224293611</v>
+        <v>0.2281727109636559</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.1092472076416015</v>
+        <v>0.0388402938842773</v>
       </c>
       <c r="D19" t="n">
-        <v>0.732629120349884</v>
+        <v>0.3524296283721924</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.016466021537781</v>
+        <v>-1.101761341094971</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2866266923291341</v>
+        <v>-0.124921940267086</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4182899764605935</v>
+        <v>1.249372124671936</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.003992439912898826</v>
+        <v>1.016479730606079</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.4153709411621094</v>
+        <v>-0.1728830337524414</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5096800327301025</v>
+        <v>0.6193998456001282</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.7671611309051514</v>
+        <v>-0.6873818635940552</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.03713915026968551</v>
+        <v>-0.4928955077415405</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07855436143775912</v>
+        <v>-0.4476696934018742</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07685266648020034</v>
+        <v>-0.9833766732896989</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>0.4876585006713867</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6636635065078735</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.9166454076766968</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.2805471434479678</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4230750912711692</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.2188279224293611</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.1092472076416015</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.732629120349884</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-1.016466021537781</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.2866266923291341</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.4182899764605935</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.003992439912898826</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4153709411621094</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5096800327301025</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.7671611309051514</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.03713915026968551</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.07855436143775912</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.07685266648020034</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>0.17730712890625</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D24" t="n">
         <v>0.6253083348274231</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E24" t="n">
         <v>-0.8837988376617432</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F24" t="n">
         <v>0.03008511281084441</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G24" t="n">
         <v>0.0510363349070151</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>-0.07897615255344478</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0039987564086914</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.546174168586731</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.7374091148376465</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0188495556690863</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.09346238630158486</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.02356194624943445</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0831842422485351</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5668889284133911</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.8130950927734375</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1422297873844697</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.01903863499562003</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.03227404815455254</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.0142126083374023</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.51572585105896</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.7260744571685791</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.08552113210871153</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01936588267562919</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.03527019580914864</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1546173095703125</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5381616353988647</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.7814648151397705</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0006981316421711559</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01939497157166284</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.01994038639324046</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.2052326202392578</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5754936933517456</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.8383152484893799</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.006530440013323374</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04903648190555104</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.02060942954960315</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.07891082763671869</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.5558477640151978</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.7180624008178711</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.00994837645529994</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.04445499217226397</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.01362811268440311</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1948976516723632</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.6977589726448059</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.9572491645812988</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.01760600972920647</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.0257654253925594</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.005214171284543525</v>
       </c>
     </row>
   </sheetData>
